--- a/cryData/cryData.xlsx
+++ b/cryData/cryData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="123">
   <si>
     <t>coleoptera</t>
   </si>
@@ -365,6 +365,24 @@
   </si>
   <si>
     <t>55A</t>
+  </si>
+  <si>
+    <t>RHA</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>HUC</t>
+  </si>
+  <si>
+    <t>human-cancer cell</t>
+  </si>
+  <si>
+    <t>gastropoda</t>
+  </si>
+  <si>
+    <t>rhabditida</t>
   </si>
 </sst>
 </file>
@@ -505,12 +523,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -518,6 +530,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,56 +874,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O410"/>
+  <dimension ref="A1:R410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="12" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="91.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
@@ -938,12 +965,21 @@
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -968,14 +1004,19 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -998,14 +1039,17 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1026,14 +1070,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1052,14 +1099,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1078,8 +1128,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1098,8 +1151,11 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1120,8 +1176,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1140,8 +1199,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1164,8 +1226,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1186,8 +1251,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1206,8 +1274,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1242,8 +1313,11 @@
       <c r="L14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1270,8 +1344,11 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1290,8 +1367,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1310,8 +1390,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1330,8 +1413,11 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1352,8 +1438,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1372,8 +1461,13 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1484,13 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1408,8 +1507,13 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1426,8 +1530,13 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1448,8 +1557,11 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1472,8 +1584,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -1492,8 +1607,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -1512,8 +1630,11 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -1532,8 +1653,11 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1554,8 +1678,11 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -1576,8 +1703,11 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1728,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -1620,8 +1753,11 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
@@ -1640,8 +1776,11 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1664,8 +1803,11 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -1684,8 +1826,11 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>20</v>
       </c>
@@ -1706,8 +1851,11 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>20</v>
       </c>
@@ -1728,8 +1876,11 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -1748,8 +1899,11 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
@@ -1772,8 +1926,11 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1792,8 +1949,11 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -1810,8 +1970,13 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -1828,8 +1993,13 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -1848,8 +2018,13 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
@@ -1872,8 +2047,11 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
@@ -1892,8 +2070,11 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>20</v>
       </c>
@@ -1912,8 +2093,11 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
@@ -1932,8 +2116,11 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>20</v>
       </c>
@@ -1952,8 +2139,11 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>20</v>
       </c>
@@ -1972,8 +2162,11 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
@@ -1992,8 +2185,11 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
@@ -2010,8 +2206,13 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
@@ -2034,8 +2235,11 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>20</v>
       </c>
@@ -2054,8 +2258,11 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>20</v>
       </c>
@@ -2074,8 +2281,11 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>20</v>
       </c>
@@ -2094,8 +2304,11 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2327,11 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>20</v>
       </c>
@@ -2134,8 +2350,11 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>20</v>
       </c>
@@ -2154,8 +2373,11 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>20</v>
       </c>
@@ -2174,8 +2396,11 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2419,11 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
@@ -2214,8 +2442,11 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>20</v>
       </c>
@@ -2242,8 +2473,13 @@
         <v>32</v>
       </c>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>20</v>
       </c>
@@ -2264,8 +2500,11 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>20</v>
       </c>
@@ -2284,8 +2523,11 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>20</v>
       </c>
@@ -2304,8 +2546,11 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>20</v>
       </c>
@@ -2324,8 +2569,11 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2594,11 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>20</v>
       </c>
@@ -2368,8 +2619,11 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>20</v>
       </c>
@@ -2390,8 +2644,11 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>20</v>
       </c>
@@ -2412,8 +2669,11 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>20</v>
       </c>
@@ -2434,8 +2694,11 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>20</v>
       </c>
@@ -2454,8 +2717,11 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>20</v>
       </c>
@@ -2474,8 +2740,11 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -2494,8 +2763,11 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>20</v>
       </c>
@@ -2514,8 +2786,11 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>20</v>
       </c>
@@ -2534,8 +2809,11 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>20</v>
       </c>
@@ -2554,8 +2832,11 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>20</v>
       </c>
@@ -2582,8 +2863,13 @@
         <v>32</v>
       </c>
       <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>20</v>
       </c>
@@ -2610,8 +2896,13 @@
         <v>32</v>
       </c>
       <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>20</v>
       </c>
@@ -2630,8 +2921,11 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>20</v>
       </c>
@@ -2650,8 +2944,11 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>20</v>
       </c>
@@ -2670,8 +2967,11 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>20</v>
       </c>
@@ -2700,8 +3000,13 @@
         <v>32</v>
       </c>
       <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>20</v>
       </c>
@@ -2718,8 +3023,13 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>20</v>
       </c>
@@ -2738,8 +3048,11 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>20</v>
       </c>
@@ -2762,8 +3075,11 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>20</v>
       </c>
@@ -2786,8 +3102,11 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>20</v>
       </c>
@@ -2806,8 +3125,11 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>20</v>
       </c>
@@ -2826,8 +3148,13 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
@@ -2840,8 +3167,11 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
@@ -2854,8 +3184,11 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
@@ -2868,8 +3201,11 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
@@ -2882,8 +3218,11 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
@@ -2896,8 +3235,11 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
@@ -2910,8 +3252,11 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
@@ -2924,8 +3269,11 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
@@ -2938,8 +3286,11 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
@@ -2952,8 +3303,11 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
@@ -2966,8 +3320,11 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
@@ -2980,8 +3337,11 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
@@ -2994,8 +3354,11 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
@@ -3008,8 +3371,11 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
@@ -3022,8 +3388,11 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
@@ -3036,8 +3405,11 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
@@ -3050,8 +3422,11 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
@@ -3064,8 +3439,11 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
@@ -3078,8 +3456,11 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1"/>
@@ -3092,8 +3473,11 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1"/>
@@ -3106,8 +3490,11 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1"/>
@@ -3120,8 +3507,11 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1"/>
@@ -3134,8 +3524,11 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1"/>
@@ -3148,8 +3541,11 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1"/>
@@ -3162,8 +3558,11 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1"/>
@@ -3176,8 +3575,11 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
@@ -3190,8 +3592,11 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
@@ -3204,8 +3609,11 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
@@ -3218,8 +3626,11 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="1"/>
@@ -3232,8 +3643,11 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
@@ -3246,8 +3660,11 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1"/>
@@ -3260,8 +3677,11 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="1"/>
@@ -3274,8 +3694,11 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="1"/>
@@ -3288,8 +3711,11 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="1"/>
@@ -3302,8 +3728,11 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="1"/>
@@ -3316,8 +3745,11 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="1"/>
@@ -3330,8 +3762,11 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="1"/>
@@ -3344,8 +3779,11 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="1"/>
@@ -3358,8 +3796,11 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="1"/>
@@ -3372,8 +3813,11 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="1"/>
@@ -3386,8 +3830,11 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="1"/>
@@ -3400,8 +3847,11 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
@@ -3414,8 +3864,11 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="1"/>
@@ -3428,8 +3881,11 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="1"/>
@@ -3442,8 +3898,11 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="1"/>
@@ -3456,8 +3915,11 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="1"/>
@@ -3470,8 +3932,11 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="1"/>
@@ -3484,8 +3949,11 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="1"/>
@@ -3498,8 +3966,11 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1"/>
@@ -3512,8 +3983,11 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="1"/>
@@ -3526,8 +4000,11 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="1"/>
@@ -3540,8 +4017,11 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="1"/>
@@ -3554,8 +4034,11 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="1"/>
@@ -3568,8 +4051,11 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="1"/>
@@ -3582,8 +4068,11 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="1"/>
@@ -3596,8 +4085,11 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="1"/>
@@ -3610,8 +4102,11 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="1"/>
@@ -3624,8 +4119,11 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="1"/>
@@ -3638,8 +4136,11 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="1"/>
@@ -3652,8 +4153,11 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="1"/>
@@ -3666,8 +4170,11 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="1"/>
@@ -3680,8 +4187,11 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="1"/>
@@ -3694,8 +4204,11 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="1"/>
@@ -3708,8 +4221,11 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="1"/>
@@ -3722,8 +4238,11 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="1"/>
@@ -3736,8 +4255,11 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="1"/>
@@ -3750,8 +4272,11 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="1"/>
@@ -3764,8 +4289,11 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="1"/>
@@ -3778,8 +4306,11 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="1"/>
@@ -3792,8 +4323,11 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="1"/>
@@ -3806,8 +4340,11 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="1"/>
@@ -3820,8 +4357,11 @@
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="1"/>
@@ -3834,8 +4374,11 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="1"/>
@@ -3848,8 +4391,11 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="1"/>
@@ -3862,8 +4408,11 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="1"/>
@@ -3876,8 +4425,11 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="1"/>
@@ -3890,8 +4442,11 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="1"/>
@@ -3904,8 +4459,11 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="1"/>
@@ -3918,8 +4476,11 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="1"/>
@@ -3932,8 +4493,11 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="1"/>
@@ -3946,8 +4510,11 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="1"/>
@@ -3960,8 +4527,11 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="1"/>
@@ -3974,8 +4544,11 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="1"/>
@@ -3988,8 +4561,11 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="1"/>
@@ -4002,8 +4578,11 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="1"/>
@@ -4016,8 +4595,11 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="1"/>
@@ -4030,8 +4612,11 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="1"/>
@@ -4044,8 +4629,11 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="1"/>
@@ -4058,8 +4646,11 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="1"/>
@@ -4072,8 +4663,11 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="1"/>
@@ -4086,8 +4680,11 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="1"/>
@@ -4100,8 +4697,11 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="1"/>
@@ -4114,8 +4714,11 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="1"/>
@@ -4128,8 +4731,11 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="1"/>
@@ -4142,8 +4748,11 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="1"/>
@@ -4156,8 +4765,11 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="1"/>
@@ -4170,8 +4782,11 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="1"/>
@@ -4184,8 +4799,11 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="1"/>
@@ -4198,8 +4816,11 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="1"/>
@@ -4212,8 +4833,11 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="1"/>
@@ -4226,8 +4850,11 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="1"/>
@@ -4240,8 +4867,11 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="1"/>
@@ -4254,8 +4884,11 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="1"/>
@@ -4268,8 +4901,11 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="1"/>
@@ -4282,8 +4918,11 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="1"/>
@@ -4296,8 +4935,11 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="1"/>
@@ -4310,8 +4952,11 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="1"/>
@@ -4324,8 +4969,11 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="1"/>
@@ -4338,8 +4986,11 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="1"/>
@@ -4352,8 +5003,11 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="1"/>
@@ -4366,8 +5020,11 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="1"/>
@@ -4380,8 +5037,11 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="1"/>
@@ -4394,8 +5054,11 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="1"/>
@@ -4408,8 +5071,11 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="1"/>
@@ -4422,8 +5088,11 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="1"/>
@@ -4436,8 +5105,11 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="1"/>
@@ -4450,8 +5122,11 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="1"/>
@@ -4464,8 +5139,11 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="1"/>
@@ -4478,8 +5156,11 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="1"/>
@@ -4492,8 +5173,11 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="1"/>
@@ -4506,8 +5190,11 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="1"/>
@@ -4520,8 +5207,11 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="1"/>
@@ -4534,8 +5224,11 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="1"/>
@@ -4548,8 +5241,11 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="1"/>
@@ -4562,8 +5258,11 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="1"/>
@@ -4576,8 +5275,11 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="1"/>
@@ -4590,8 +5292,11 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="1"/>
@@ -4604,8 +5309,11 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="1"/>
@@ -4618,8 +5326,11 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="1"/>
@@ -4632,8 +5343,11 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="1"/>
@@ -4646,8 +5360,11 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="1"/>
@@ -4660,8 +5377,11 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="1"/>
@@ -4674,8 +5394,11 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="1"/>
@@ -4688,8 +5411,11 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="1"/>
@@ -4702,8 +5428,11 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="1"/>
@@ -4716,8 +5445,11 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="1"/>
@@ -4730,8 +5462,11 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="1"/>
@@ -4744,8 +5479,11 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="1"/>
@@ -4758,8 +5496,11 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="1"/>
@@ -4772,8 +5513,11 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="1"/>
@@ -4786,8 +5530,11 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="1"/>
@@ -4800,8 +5547,11 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="1"/>
@@ -4814,8 +5564,11 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="1"/>
@@ -4828,8 +5581,11 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="1"/>
@@ -4842,8 +5598,11 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="1"/>
@@ -4856,8 +5615,11 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="1"/>
@@ -4870,8 +5632,11 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="1"/>
@@ -4884,8 +5649,11 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="1"/>
@@ -4898,8 +5666,11 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="1"/>
@@ -4912,8 +5683,11 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="1"/>
@@ -4926,8 +5700,11 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="1"/>
@@ -4940,8 +5717,11 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="1"/>
@@ -4954,8 +5734,11 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="1"/>
@@ -4968,8 +5751,11 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="1"/>
@@ -4982,8 +5768,11 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="1"/>
@@ -4996,8 +5785,11 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="1"/>
@@ -5010,8 +5802,11 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="1"/>
@@ -5024,8 +5819,11 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="1"/>
@@ -5038,8 +5836,11 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="1"/>
@@ -5052,8 +5853,11 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="1"/>
@@ -5066,8 +5870,11 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="1"/>
@@ -5080,8 +5887,11 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="1"/>
@@ -5094,8 +5904,11 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="1"/>
@@ -5108,8 +5921,11 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="1"/>
@@ -5122,8 +5938,11 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="1"/>
@@ -5136,8 +5955,11 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="1"/>
@@ -5150,8 +5972,11 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="1"/>
@@ -5164,8 +5989,11 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="1"/>
@@ -5178,8 +6006,11 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="1"/>
@@ -5192,8 +6023,11 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="1"/>
@@ -5206,8 +6040,11 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="1"/>
@@ -5220,8 +6057,11 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="1"/>
@@ -5234,8 +6074,11 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="1"/>
@@ -5248,8 +6091,11 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="1"/>
@@ -5262,8 +6108,11 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="1"/>
@@ -5276,8 +6125,11 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="1"/>
@@ -5290,8 +6142,11 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="1"/>
@@ -5304,8 +6159,11 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="1"/>
@@ -5318,8 +6176,11 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="1"/>
@@ -5332,8 +6193,11 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="1"/>
@@ -5346,8 +6210,11 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="1"/>
@@ -5360,8 +6227,11 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="1"/>
@@ -5374,8 +6244,11 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="1"/>
@@ -5388,8 +6261,11 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="1"/>
@@ -5402,8 +6278,11 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="1"/>
@@ -5416,8 +6295,11 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="1"/>
@@ -5430,8 +6312,11 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="1"/>
@@ -5444,8 +6329,11 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="1"/>
@@ -5458,8 +6346,11 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="1"/>
@@ -5472,8 +6363,11 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="1"/>
@@ -5486,8 +6380,11 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="1"/>
@@ -5500,8 +6397,11 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="1"/>
@@ -5514,8 +6414,11 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="1"/>
@@ -5528,8 +6431,11 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="1"/>
@@ -5542,8 +6448,11 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="1"/>
@@ -5556,8 +6465,11 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="1"/>
@@ -5570,8 +6482,11 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="1"/>
@@ -5584,8 +6499,11 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="1"/>
@@ -5598,8 +6516,11 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="1"/>
@@ -5612,8 +6533,11 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="1"/>
@@ -5626,8 +6550,11 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="1"/>
@@ -5640,8 +6567,11 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="1"/>
@@ -5654,8 +6584,11 @@
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="1"/>
@@ -5668,8 +6601,11 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="1"/>
@@ -5682,8 +6618,11 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="1"/>
@@ -5696,8 +6635,11 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="1"/>
@@ -5710,8 +6652,11 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="1"/>
@@ -5724,8 +6669,11 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="1"/>
@@ -5738,8 +6686,11 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="1"/>
@@ -5752,8 +6703,11 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="1"/>
@@ -5766,8 +6720,11 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="1"/>
@@ -5780,8 +6737,11 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="1"/>
@@ -5794,8 +6754,11 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="1"/>
@@ -5808,8 +6771,11 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="1"/>
@@ -5822,8 +6788,11 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="1"/>
@@ -5836,8 +6805,11 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="1"/>
@@ -5850,8 +6822,11 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="1"/>
@@ -5864,8 +6839,11 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="1"/>
@@ -5878,8 +6856,11 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="1"/>
@@ -5892,8 +6873,11 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="1"/>
@@ -5906,8 +6890,11 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="1"/>
@@ -5920,8 +6907,11 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="1"/>
@@ -5934,8 +6924,11 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="1"/>
@@ -5948,8 +6941,11 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="1"/>
@@ -5962,8 +6958,11 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="1"/>
@@ -5976,8 +6975,11 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="1"/>
@@ -5990,8 +6992,11 @@
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="1"/>
@@ -6004,8 +7009,11 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="1"/>
@@ -6018,8 +7026,11 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="1"/>
@@ -6032,8 +7043,11 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="1"/>
@@ -6046,8 +7060,11 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="1"/>
@@ -6060,8 +7077,11 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="1"/>
@@ -6074,8 +7094,11 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="1"/>
@@ -6088,8 +7111,11 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="1"/>
@@ -6102,8 +7128,11 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323" s="1"/>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="1"/>
@@ -6116,8 +7145,11 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="1"/>
@@ -6130,8 +7162,11 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="1"/>
@@ -6144,8 +7179,11 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="1"/>
@@ -6158,8 +7196,11 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327" s="1"/>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="1"/>
@@ -6172,8 +7213,11 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="1"/>
@@ -6186,8 +7230,11 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="1"/>
@@ -6200,8 +7247,11 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="1"/>
@@ -6214,8 +7264,11 @@
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="1"/>
@@ -6228,8 +7281,11 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="1"/>
@@ -6242,8 +7298,11 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="1"/>
@@ -6256,8 +7315,11 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="1"/>
@@ -6270,8 +7332,11 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="1"/>
@@ -6284,8 +7349,11 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="1"/>
@@ -6298,8 +7366,11 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="1"/>
@@ -6312,8 +7383,11 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="1"/>
@@ -6326,8 +7400,11 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="1"/>
@@ -6340,8 +7417,11 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="1"/>
@@ -6354,8 +7434,11 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="1"/>
@@ -6368,8 +7451,11 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342" s="1"/>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="1"/>
@@ -6382,8 +7468,11 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="1"/>
@@ -6396,8 +7485,11 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="1"/>
@@ -6410,8 +7502,11 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="1"/>
@@ -6424,8 +7519,11 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346" s="1"/>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="1"/>
@@ -6438,8 +7536,11 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347" s="1"/>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="1"/>
@@ -6452,8 +7553,11 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="1"/>
@@ -6466,8 +7570,11 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="1"/>
@@ -6480,8 +7587,11 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="1"/>
@@ -6494,8 +7604,11 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="1"/>
@@ -6508,8 +7621,11 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="1"/>
@@ -6522,8 +7638,11 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="1"/>
@@ -6536,8 +7655,11 @@
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="1"/>
@@ -6550,8 +7672,11 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355" s="1"/>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="1"/>
@@ -6564,8 +7689,11 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356" s="1"/>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="1"/>
@@ -6578,8 +7706,11 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="1"/>
@@ -6592,8 +7723,11 @@
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="1"/>
@@ -6606,8 +7740,11 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359" s="1"/>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="1"/>
@@ -6620,8 +7757,11 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="1"/>
@@ -6634,8 +7774,11 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="1"/>
@@ -6648,8 +7791,11 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="1"/>
@@ -6662,8 +7808,11 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="1"/>
@@ -6676,8 +7825,11 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="1"/>
@@ -6690,8 +7842,11 @@
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365" s="1"/>
+      <c r="N365" s="1"/>
+      <c r="O365" s="1"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="1"/>
@@ -6704,8 +7859,11 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366" s="1"/>
+      <c r="N366" s="1"/>
+      <c r="O366" s="1"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="1"/>
@@ -6718,8 +7876,11 @@
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367" s="1"/>
+      <c r="N367" s="1"/>
+      <c r="O367" s="1"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="1"/>
@@ -6732,8 +7893,11 @@
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368" s="1"/>
+      <c r="N368" s="1"/>
+      <c r="O368" s="1"/>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="1"/>
@@ -6746,8 +7910,11 @@
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
+      <c r="O369" s="1"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="1"/>
@@ -6760,8 +7927,11 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
+      <c r="O370" s="1"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="1"/>
@@ -6774,8 +7944,11 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+      <c r="O371" s="1"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="1"/>
@@ -6788,8 +7961,11 @@
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="1"/>
@@ -6802,8 +7978,11 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="1"/>
@@ -6816,8 +7995,11 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="1"/>
@@ -6830,8 +8012,11 @@
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="1"/>
@@ -6844,8 +8029,11 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="1"/>
@@ -6858,8 +8046,11 @@
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="1"/>
@@ -6872,8 +8063,11 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="1"/>
@@ -6886,8 +8080,11 @@
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="1"/>
@@ -6900,8 +8097,11 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="1"/>
@@ -6914,8 +8114,11 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381" s="1"/>
+      <c r="N381" s="1"/>
+      <c r="O381" s="1"/>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="1"/>
@@ -6928,8 +8131,11 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382" s="1"/>
+      <c r="N382" s="1"/>
+      <c r="O382" s="1"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="1"/>
@@ -6942,8 +8148,11 @@
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="1"/>
@@ -6956,8 +8165,11 @@
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384" s="1"/>
+      <c r="N384" s="1"/>
+      <c r="O384" s="1"/>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="1"/>
@@ -6970,8 +8182,11 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385" s="1"/>
+      <c r="N385" s="1"/>
+      <c r="O385" s="1"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="1"/>
@@ -6984,8 +8199,11 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386" s="1"/>
+      <c r="N386" s="1"/>
+      <c r="O386" s="1"/>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="1"/>
@@ -6998,8 +8216,11 @@
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="1"/>
@@ -7012,8 +8233,11 @@
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="1"/>
@@ -7026,8 +8250,11 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389" s="1"/>
+      <c r="N389" s="1"/>
+      <c r="O389" s="1"/>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="1"/>
@@ -7040,8 +8267,11 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
+      <c r="O390" s="1"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="1"/>
@@ -7054,8 +8284,11 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="1"/>
@@ -7068,8 +8301,11 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
+      <c r="O392" s="1"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="1"/>
@@ -7082,8 +8318,11 @@
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="1"/>
@@ -7096,8 +8335,11 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="1"/>
@@ -7110,8 +8352,11 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="1"/>
@@ -7124,8 +8369,11 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="1"/>
@@ -7138,8 +8386,11 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="1"/>
@@ -7152,8 +8403,11 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="1"/>
@@ -7166,8 +8420,11 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="1"/>
@@ -7180,8 +8437,11 @@
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="1"/>
@@ -7194,8 +8454,11 @@
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="1"/>
@@ -7208,8 +8471,11 @@
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="1"/>
@@ -7222,8 +8488,11 @@
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="1"/>
@@ -7236,8 +8505,11 @@
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404" s="1"/>
+      <c r="N404" s="1"/>
+      <c r="O404" s="1"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="1"/>
@@ -7250,8 +8522,11 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
+      <c r="O405" s="1"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="1"/>
@@ -7264,8 +8539,11 @@
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="1"/>
@@ -7278,8 +8556,11 @@
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="1"/>
@@ -7292,8 +8573,11 @@
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="1"/>
@@ -7306,8 +8590,11 @@
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="1"/>
@@ -7320,12 +8607,15 @@
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
+      <c r="M410" s="1"/>
+      <c r="N410" s="1"/>
+      <c r="O410" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:L410">
+  <conditionalFormatting sqref="C3:O410">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
